--- a/原始資料/互動媒體設計2B.xlsx
+++ b/原始資料/互動媒體設計2B.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="NEW" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>成就名稱</t>
   </si>
@@ -194,13 +195,22 @@
   </si>
   <si>
     <t>黃婷郁</t>
+  </si>
+  <si>
+    <t>鄧亘庭</t>
+  </si>
+  <si>
+    <t>李芸昀</t>
+  </si>
+  <si>
+    <t>林姿妤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -220,6 +230,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -292,6 +307,10 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -301,6 +320,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1574,4 +1597,940 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3.0" ySplit="4.0" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="D5" sqref="D5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>-2.0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17">
+        <v>1.08051731E8</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="F5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17">
+        <v>1.09051055E8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="F6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17">
+        <v>1.09051066E8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="F7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17">
+        <v>1.09051139E8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="F8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="M8" s="13"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17">
+        <v>1.09053044E8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="M9" s="13"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="17">
+        <v>1.0905306E8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="F10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="9"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17">
+        <v>1.10051091E8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="F11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="9"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17">
+        <v>1.11051009E8</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="F12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17">
+        <v>1.11051011E8</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="F13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17">
+        <v>1.11051012E8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="F14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17">
+        <v>1.11051015E8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="F15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17">
+        <v>1.11051018E8</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="F16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17">
+        <v>1.11051019E8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="F17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="M17" s="13"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17">
+        <v>1.11051021E8</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17">
+        <v>1.11051026E8</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="F19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17">
+        <v>1.11051047E8</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="F20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17">
+        <v>1.11051055E8</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="F21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17">
+        <v>1.11051057E8</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="F22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17">
+        <v>1.11051061E8</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="F23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17">
+        <v>1.11051062E8</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="F24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17">
+        <v>1.11051073E8</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="F25" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17">
+        <v>1.11051086E8</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="F26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17">
+        <v>1.11051092E8</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="F27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17">
+        <v>1.12051084E8</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="F28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="17">
+        <v>1.12051125E8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="F29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71">
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>